--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1731.620880088897</v>
+        <v>1939.73988247137</v>
       </c>
       <c r="AB2" t="n">
-        <v>2369.28008185926</v>
+        <v>2654.037682481343</v>
       </c>
       <c r="AC2" t="n">
-        <v>2143.159316152091</v>
+        <v>2400.740051030606</v>
       </c>
       <c r="AD2" t="n">
-        <v>1731620.880088897</v>
+        <v>1939739.882471371</v>
       </c>
       <c r="AE2" t="n">
-        <v>2369280.08185926</v>
+        <v>2654037.682481343</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.342637857873532e-07</v>
+        <v>9.031994380129475e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.92534722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2143159.316152092</v>
+        <v>2400740.051030606</v>
       </c>
     </row>
     <row r="3">
@@ -4483,28 +4483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1216.292988237807</v>
+        <v>1372.339659105927</v>
       </c>
       <c r="AB3" t="n">
-        <v>1664.185725566543</v>
+        <v>1877.695664941554</v>
       </c>
       <c r="AC3" t="n">
-        <v>1505.358175617807</v>
+        <v>1698.491026041949</v>
       </c>
       <c r="AD3" t="n">
-        <v>1216292.988237807</v>
+        <v>1372339.659105927</v>
       </c>
       <c r="AE3" t="n">
-        <v>1664185.725566543</v>
+        <v>1877695.664941554</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.911187222411525e-07</v>
+        <v>1.168370490634163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.31423611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1505358.175617807</v>
+        <v>1698491.026041949</v>
       </c>
     </row>
     <row r="4">
@@ -4589,28 +4589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1070.849699286016</v>
+        <v>1216.567137295576</v>
       </c>
       <c r="AB4" t="n">
-        <v>1465.183801117648</v>
+        <v>1664.560828401985</v>
       </c>
       <c r="AC4" t="n">
-        <v>1325.348715537359</v>
+        <v>1505.697479165095</v>
       </c>
       <c r="AD4" t="n">
-        <v>1070849.699286016</v>
+        <v>1216567.137295576</v>
       </c>
       <c r="AE4" t="n">
-        <v>1465183.801117648</v>
+        <v>1664560.828401985</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.537673307890688e-07</v>
+        <v>1.274281071770375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.88368055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1325348.715537359</v>
+        <v>1505697.479165095</v>
       </c>
     </row>
     <row r="5">
@@ -4695,28 +4695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1005.480342279851</v>
+        <v>1140.868636939401</v>
       </c>
       <c r="AB5" t="n">
-        <v>1375.742562969316</v>
+        <v>1560.986800632527</v>
       </c>
       <c r="AC5" t="n">
-        <v>1244.443623626338</v>
+        <v>1412.008411238892</v>
       </c>
       <c r="AD5" t="n">
-        <v>1005480.342279851</v>
+        <v>1140868.636939401</v>
       </c>
       <c r="AE5" t="n">
-        <v>1375742.562969316</v>
+        <v>1560986.800632527</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.87845933054329e-07</v>
+        <v>1.33189263975058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.72048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1244443.623626338</v>
+        <v>1412008.411238892</v>
       </c>
     </row>
     <row r="6">
@@ -4801,28 +4801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>970.3140930891892</v>
+        <v>1095.28799305271</v>
       </c>
       <c r="AB6" t="n">
-        <v>1327.626549401233</v>
+        <v>1498.621352790668</v>
       </c>
       <c r="AC6" t="n">
-        <v>1200.919734861944</v>
+        <v>1355.595034208605</v>
       </c>
       <c r="AD6" t="n">
-        <v>970314.0930891893</v>
+        <v>1095287.99305271</v>
       </c>
       <c r="AE6" t="n">
-        <v>1327626.549401233</v>
+        <v>1498621.352790668</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.092267547495193e-07</v>
+        <v>1.368037979661447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.03472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1200919.734861944</v>
+        <v>1355595.034208605</v>
       </c>
     </row>
     <row r="7">
@@ -4907,28 +4907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>936.0139691534368</v>
+        <v>1071.316922958416</v>
       </c>
       <c r="AB7" t="n">
-        <v>1280.695606617666</v>
+        <v>1465.823077158679</v>
       </c>
       <c r="AC7" t="n">
-        <v>1158.467815389648</v>
+        <v>1325.926979970264</v>
       </c>
       <c r="AD7" t="n">
-        <v>936013.9691534368</v>
+        <v>1071316.922958416</v>
       </c>
       <c r="AE7" t="n">
-        <v>1280695.606617666</v>
+        <v>1465823.077158679</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.226714635884165e-07</v>
+        <v>1.390766927028981e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.62673611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1158467.815389648</v>
+        <v>1325926.979970264</v>
       </c>
     </row>
     <row r="8">
@@ -5013,28 +5013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>915.9131607962119</v>
+        <v>1040.801719905161</v>
       </c>
       <c r="AB8" t="n">
-        <v>1253.192793838232</v>
+        <v>1424.07083010547</v>
       </c>
       <c r="AC8" t="n">
-        <v>1133.589832461443</v>
+        <v>1288.159508776166</v>
       </c>
       <c r="AD8" t="n">
-        <v>915913.1607962118</v>
+        <v>1040801.719905161</v>
       </c>
       <c r="AE8" t="n">
-        <v>1253192.793838232</v>
+        <v>1424070.83010547</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332685084024082e-07</v>
+        <v>1.40868175707214e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.31423611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1133589.832461443</v>
+        <v>1288159.508776166</v>
       </c>
     </row>
     <row r="9">
@@ -5119,28 +5119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>898.053880623627</v>
+        <v>1022.942439732576</v>
       </c>
       <c r="AB9" t="n">
-        <v>1228.756938810267</v>
+        <v>1399.634975077505</v>
       </c>
       <c r="AC9" t="n">
-        <v>1111.48610114141</v>
+        <v>1266.055777456132</v>
       </c>
       <c r="AD9" t="n">
-        <v>898053.880623627</v>
+        <v>1022942.439732576</v>
       </c>
       <c r="AE9" t="n">
-        <v>1228756.938810267</v>
+        <v>1399634.975077505</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.421149400863353e-07</v>
+        <v>1.423637088760152e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.0625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1111486.10114141</v>
+        <v>1266055.777456132</v>
       </c>
     </row>
     <row r="10">
@@ -5225,28 +5225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>875.0478814438677</v>
+        <v>1010.265494394275</v>
       </c>
       <c r="AB10" t="n">
-        <v>1197.279115779469</v>
+        <v>1382.289819198284</v>
       </c>
       <c r="AC10" t="n">
-        <v>1083.012477361268</v>
+        <v>1250.366018909945</v>
       </c>
       <c r="AD10" t="n">
-        <v>875047.8814438677</v>
+        <v>1010265.494394275</v>
       </c>
       <c r="AE10" t="n">
-        <v>1197279.115779469</v>
+        <v>1382289.819198284</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.472267304261244e-07</v>
+        <v>1.432278823957183e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.91493055555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1083012.477361268</v>
+        <v>1250366.018909945</v>
       </c>
     </row>
     <row r="11">
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>860.5330346454466</v>
+        <v>985.5068451004164</v>
       </c>
       <c r="AB11" t="n">
-        <v>1177.419262040022</v>
+        <v>1348.413942959909</v>
       </c>
       <c r="AC11" t="n">
-        <v>1065.048020189234</v>
+        <v>1219.723208754669</v>
       </c>
       <c r="AD11" t="n">
-        <v>860533.0346454466</v>
+        <v>985506.8451004165</v>
       </c>
       <c r="AE11" t="n">
-        <v>1177419.262040022</v>
+        <v>1348413.942959909</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.533188641187495e-07</v>
+        <v>1.442577878233096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.74131944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>1065048.020189235</v>
+        <v>1219723.208754669</v>
       </c>
     </row>
     <row r="12">
@@ -5437,28 +5437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>847.999656578406</v>
+        <v>972.973467033376</v>
       </c>
       <c r="AB12" t="n">
-        <v>1160.270541235081</v>
+        <v>1331.265222154968</v>
       </c>
       <c r="AC12" t="n">
-        <v>1049.535949229536</v>
+        <v>1204.211137794971</v>
       </c>
       <c r="AD12" t="n">
-        <v>847999.656578406</v>
+        <v>972973.467033376</v>
       </c>
       <c r="AE12" t="n">
-        <v>1160270.541235081</v>
+        <v>1331265.222154968</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.571001884796894e-07</v>
+        <v>1.448970394680215e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.63715277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1049535.949229536</v>
+        <v>1204211.137794971</v>
       </c>
     </row>
     <row r="13">
@@ -5543,28 +5543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>828.3653246392815</v>
+        <v>953.3391350942516</v>
       </c>
       <c r="AB13" t="n">
-        <v>1133.405982070379</v>
+        <v>1304.400662990266</v>
       </c>
       <c r="AC13" t="n">
-        <v>1025.235305886868</v>
+        <v>1179.910494452303</v>
       </c>
       <c r="AD13" t="n">
-        <v>828365.3246392815</v>
+        <v>953339.1350942516</v>
       </c>
       <c r="AE13" t="n">
-        <v>1133405.982070379</v>
+        <v>1304400.662990266</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.607648052986249e-07</v>
+        <v>1.45516561123699e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.54166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1025235.305886868</v>
+        <v>1179910.494452303</v>
       </c>
     </row>
     <row r="14">
@@ -5649,28 +5649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>819.4197459274067</v>
+        <v>944.2229641817843</v>
       </c>
       <c r="AB14" t="n">
-        <v>1121.166246625712</v>
+        <v>1291.927515770752</v>
       </c>
       <c r="AC14" t="n">
-        <v>1014.163713614464</v>
+        <v>1168.627766897248</v>
       </c>
       <c r="AD14" t="n">
-        <v>819419.7459274067</v>
+        <v>944222.9641817843</v>
       </c>
       <c r="AE14" t="n">
-        <v>1121166.246625712</v>
+        <v>1291927.515770752</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.63799201390737e-07</v>
+        <v>1.460295408385912e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.45486111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>1014163.713614464</v>
+        <v>1168627.766897247</v>
       </c>
     </row>
     <row r="15">
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>813.5051755679666</v>
+        <v>938.3083938223442</v>
       </c>
       <c r="AB15" t="n">
-        <v>1113.073670527498</v>
+        <v>1283.834939672538</v>
       </c>
       <c r="AC15" t="n">
-        <v>1006.843481621061</v>
+        <v>1161.307534903845</v>
       </c>
       <c r="AD15" t="n">
-        <v>813505.1755679667</v>
+        <v>938308.3938223443</v>
       </c>
       <c r="AE15" t="n">
-        <v>1113073.670527498</v>
+        <v>1283834.939672538</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.655731560292026e-07</v>
+        <v>1.463294366719128e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.41145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1006843.481621061</v>
+        <v>1161307.534903845</v>
       </c>
     </row>
     <row r="16">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>811.7347317217125</v>
+        <v>936.5379499760901</v>
       </c>
       <c r="AB16" t="n">
-        <v>1110.651271150583</v>
+        <v>1281.412540295623</v>
       </c>
       <c r="AC16" t="n">
-        <v>1004.65227264082</v>
+        <v>1159.116325923604</v>
       </c>
       <c r="AD16" t="n">
-        <v>811734.7317217125</v>
+        <v>936537.9499760901</v>
       </c>
       <c r="AE16" t="n">
-        <v>1110651.271150583</v>
+        <v>1281412.540295623</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.652463749115906e-07</v>
+        <v>1.462741927026168e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>23.42013888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>1004652.27264082</v>
+        <v>1159116.325923604</v>
       </c>
     </row>
     <row r="17">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>814.7768540678925</v>
+        <v>939.5800723222701</v>
       </c>
       <c r="AB17" t="n">
-        <v>1114.813637153592</v>
+        <v>1285.574906298632</v>
       </c>
       <c r="AC17" t="n">
-        <v>1008.41738827442</v>
+        <v>1162.881441557204</v>
       </c>
       <c r="AD17" t="n">
-        <v>814776.8540678925</v>
+        <v>939580.0723222701</v>
       </c>
       <c r="AE17" t="n">
-        <v>1114813.637153592</v>
+        <v>1285574.906298633</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.650829843527844e-07</v>
+        <v>1.462465707179687e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23.42013888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1008417.38827442</v>
+        <v>1162881.441557203</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1370.207644350585</v>
+        <v>1551.667183830924</v>
       </c>
       <c r="AB2" t="n">
-        <v>1874.778548295442</v>
+        <v>2123.059495642329</v>
       </c>
       <c r="AC2" t="n">
-        <v>1695.852314914343</v>
+        <v>1920.437677110941</v>
       </c>
       <c r="AD2" t="n">
-        <v>1370207.644350585</v>
+        <v>1551667.183830924</v>
       </c>
       <c r="AE2" t="n">
-        <v>1874778.548295442</v>
+        <v>2123059.495642329</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.168214196543288e-07</v>
+        <v>1.068205787780323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1695852.314914343</v>
+        <v>1920437.677110941</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1018.713628871073</v>
+        <v>1159.981578685115</v>
       </c>
       <c r="AB3" t="n">
-        <v>1393.848929494828</v>
+        <v>1587.137970732492</v>
       </c>
       <c r="AC3" t="n">
-        <v>1260.8219439431</v>
+        <v>1435.663750367915</v>
       </c>
       <c r="AD3" t="n">
-        <v>1018713.628871073</v>
+        <v>1159981.578685115</v>
       </c>
       <c r="AE3" t="n">
-        <v>1393848.929494828</v>
+        <v>1587137.970732492</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.61989960463169e-07</v>
+        <v>1.319607361322515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.50868055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1260821.9439431</v>
+        <v>1435663.750367915</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>917.9179431803258</v>
+        <v>1049.095325150508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1255.935825540934</v>
+        <v>1435.418506690193</v>
       </c>
       <c r="AC4" t="n">
-        <v>1136.071073068308</v>
+        <v>1298.424179034208</v>
       </c>
       <c r="AD4" t="n">
-        <v>917917.9431803258</v>
+        <v>1049095.325150508</v>
       </c>
       <c r="AE4" t="n">
-        <v>1255935.825540934</v>
+        <v>1435418.506690193</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.160538930764414e-07</v>
+        <v>1.413234793651352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.68576388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1136071.073068308</v>
+        <v>1298424.179034207</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.8554836567764</v>
+        <v>997.9475247723865</v>
       </c>
       <c r="AB5" t="n">
-        <v>1186.069915704088</v>
+        <v>1365.43582973115</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.873067608871</v>
+        <v>1235.120550542831</v>
       </c>
       <c r="AD5" t="n">
-        <v>866855.4836567764</v>
+        <v>997947.5247723865</v>
       </c>
       <c r="AE5" t="n">
-        <v>1186069.915704088</v>
+        <v>1365435.82973115</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.440396447060897e-07</v>
+        <v>1.461700266661232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.83506944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072873.067608871</v>
+        <v>1235120.550542831</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>836.6258658784708</v>
+        <v>957.6274286587718</v>
       </c>
       <c r="AB6" t="n">
-        <v>1144.708419023197</v>
+        <v>1310.268095431403</v>
       </c>
       <c r="AC6" t="n">
-        <v>1035.459054119979</v>
+        <v>1185.217947376251</v>
       </c>
       <c r="AD6" t="n">
-        <v>836625.8658784708</v>
+        <v>957627.4286587718</v>
       </c>
       <c r="AE6" t="n">
-        <v>1144708.419023197</v>
+        <v>1310268.095431403</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.634534016605653e-07</v>
+        <v>1.495320836376455e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.27951388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1035459.054119979</v>
+        <v>1185217.947376251</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>804.4662596852412</v>
+        <v>935.4729599462796</v>
       </c>
       <c r="AB7" t="n">
-        <v>1100.706227047928</v>
+        <v>1279.955373952792</v>
       </c>
       <c r="AC7" t="n">
-        <v>995.6563695893652</v>
+        <v>1157.798229491387</v>
       </c>
       <c r="AD7" t="n">
-        <v>804466.2596852412</v>
+        <v>935472.9599462796</v>
       </c>
       <c r="AE7" t="n">
-        <v>1100706.227047928</v>
+        <v>1279955.373952792</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.752368760309436e-07</v>
+        <v>1.515727351327984e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.94965277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>995656.3695893652</v>
+        <v>1157798.229491387</v>
       </c>
     </row>
     <row r="8">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>785.1034791901886</v>
+        <v>906.1902933165103</v>
       </c>
       <c r="AB8" t="n">
-        <v>1074.21321654901</v>
+        <v>1239.889537609864</v>
       </c>
       <c r="AC8" t="n">
-        <v>971.69181482929</v>
+        <v>1121.556220336274</v>
       </c>
       <c r="AD8" t="n">
-        <v>785103.4791901887</v>
+        <v>906190.2933165103</v>
       </c>
       <c r="AE8" t="n">
-        <v>1074213.21654901</v>
+        <v>1239889.537609864</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.849437545081814e-07</v>
+        <v>1.532537636185596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.68923611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>971691.81482929</v>
+        <v>1121556.220336274</v>
       </c>
     </row>
     <row r="9">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>767.1107916989664</v>
+        <v>888.1976058252878</v>
       </c>
       <c r="AB9" t="n">
-        <v>1049.59482774217</v>
+        <v>1215.271148803025</v>
       </c>
       <c r="AC9" t="n">
-        <v>949.422970498049</v>
+        <v>1099.287376005033</v>
       </c>
       <c r="AD9" t="n">
-        <v>767110.7916989664</v>
+        <v>888197.6058252879</v>
       </c>
       <c r="AE9" t="n">
-        <v>1049594.82774217</v>
+        <v>1215271.148803025</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.917530573205722e-07</v>
+        <v>1.544329925563323e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>949422.970498049</v>
+        <v>1099287.376005033</v>
       </c>
     </row>
     <row r="10">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>748.9779824756538</v>
+        <v>869.8942044013831</v>
       </c>
       <c r="AB10" t="n">
-        <v>1024.784718199749</v>
+        <v>1190.227627485757</v>
       </c>
       <c r="AC10" t="n">
-        <v>926.9807029891496</v>
+        <v>1076.633973213482</v>
       </c>
       <c r="AD10" t="n">
-        <v>748977.9824756538</v>
+        <v>869894.2044013832</v>
       </c>
       <c r="AE10" t="n">
-        <v>1024784.718199749</v>
+        <v>1190227.627485757</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.971618652282868e-07</v>
+        <v>1.553696850459107e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>926980.7029891496</v>
+        <v>1076633.973213482</v>
       </c>
     </row>
     <row r="11">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>739.8461449922279</v>
+        <v>860.7623669179574</v>
       </c>
       <c r="AB11" t="n">
-        <v>1012.290135286689</v>
+        <v>1177.733044572697</v>
       </c>
       <c r="AC11" t="n">
-        <v>915.6785855330546</v>
+        <v>1065.331855757388</v>
       </c>
       <c r="AD11" t="n">
-        <v>739846.1449922279</v>
+        <v>860762.3669179573</v>
       </c>
       <c r="AE11" t="n">
-        <v>1012290.135286689</v>
+        <v>1177733.044572697</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.99697243935028e-07</v>
+        <v>1.558087596504006e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.29861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>915678.5855330547</v>
+        <v>1065331.855757388</v>
       </c>
     </row>
     <row r="12">
@@ -7324,28 +7324,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>741.3496301618757</v>
+        <v>862.265852087605</v>
       </c>
       <c r="AB12" t="n">
-        <v>1014.347270024885</v>
+        <v>1179.790179310893</v>
       </c>
       <c r="AC12" t="n">
-        <v>917.5393902190444</v>
+        <v>1067.192660443377</v>
       </c>
       <c r="AD12" t="n">
-        <v>741349.6301618756</v>
+        <v>862265.852087605</v>
       </c>
       <c r="AE12" t="n">
-        <v>1014347.270024885</v>
+        <v>1179790.179310893</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.99528218687912e-07</v>
+        <v>1.557794880101012e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.29861111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>917539.3902190444</v>
+        <v>1067192.660443377</v>
       </c>
     </row>
   </sheetData>
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.2066634726817</v>
+        <v>853.7364411961253</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.6279949401894</v>
+        <v>1168.119863038119</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.7975336687465</v>
+        <v>1056.636142776285</v>
       </c>
       <c r="AD2" t="n">
-        <v>726206.6634726818</v>
+        <v>853736.4411961252</v>
       </c>
       <c r="AE2" t="n">
-        <v>993627.9949401894</v>
+        <v>1168119.863038119</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.739265668477515e-07</v>
+        <v>1.653657124488769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.76215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>898797.5336687465</v>
+        <v>1056636.142776285</v>
       </c>
     </row>
     <row r="3">
@@ -7727,28 +7727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>610.3693998544534</v>
+        <v>719.6685358610172</v>
       </c>
       <c r="AB3" t="n">
-        <v>835.1343404783311</v>
+        <v>984.6822403000767</v>
       </c>
       <c r="AC3" t="n">
-        <v>755.4302911414868</v>
+        <v>890.7055492960411</v>
       </c>
       <c r="AD3" t="n">
-        <v>610369.3998544534</v>
+        <v>719668.5358610172</v>
       </c>
       <c r="AE3" t="n">
-        <v>835134.3404783311</v>
+        <v>984682.2403000768</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.710864003625654e-07</v>
+        <v>1.837504437296123e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>755430.2911414868</v>
+        <v>890705.5492960411</v>
       </c>
     </row>
     <row r="4">
@@ -7833,28 +7833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.369585264805</v>
+        <v>673.5833804167972</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.1953647881801</v>
+        <v>921.6264974877282</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.4981229557968</v>
+        <v>833.6677580784121</v>
       </c>
       <c r="AD4" t="n">
-        <v>564369.585264805</v>
+        <v>673583.3804167972</v>
       </c>
       <c r="AE4" t="n">
-        <v>772195.3647881801</v>
+        <v>921626.4974877283</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.993775332495745e-07</v>
+        <v>1.891037348679295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>698498.1229557968</v>
+        <v>833667.7580784122</v>
       </c>
     </row>
     <row r="5">
@@ -7939,28 +7939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>565.7682295152791</v>
+        <v>674.9820246672714</v>
       </c>
       <c r="AB5" t="n">
-        <v>774.1090515555082</v>
+        <v>923.5401842550566</v>
       </c>
       <c r="AC5" t="n">
-        <v>700.2291701439275</v>
+        <v>835.3988052665428</v>
       </c>
       <c r="AD5" t="n">
-        <v>565768.2295152792</v>
+        <v>674982.0246672714</v>
       </c>
       <c r="AE5" t="n">
-        <v>774109.0515555083</v>
+        <v>923540.1842550565</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.992158696330775e-07</v>
+        <v>1.890731446328534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>700229.1701439274</v>
+        <v>835398.8052665428</v>
       </c>
     </row>
   </sheetData>
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>923.5537958234402</v>
+        <v>1065.917916653455</v>
       </c>
       <c r="AB2" t="n">
-        <v>1263.647047763513</v>
+        <v>1458.435918544884</v>
       </c>
       <c r="AC2" t="n">
-        <v>1143.046347064733</v>
+        <v>1319.244841406628</v>
       </c>
       <c r="AD2" t="n">
-        <v>923553.7958234402</v>
+        <v>1065917.916653455</v>
       </c>
       <c r="AE2" t="n">
-        <v>1263647.047763513</v>
+        <v>1458435.918544884</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.729313899365089e-07</v>
+        <v>1.408113131259698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.94965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1143046.347064734</v>
+        <v>1319244.841406628</v>
       </c>
     </row>
     <row r="3">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>753.3384168677225</v>
+        <v>876.6240247937722</v>
       </c>
       <c r="AB3" t="n">
-        <v>1030.750856903766</v>
+        <v>1199.435664645345</v>
       </c>
       <c r="AC3" t="n">
-        <v>932.3774417887832</v>
+        <v>1084.963208230121</v>
       </c>
       <c r="AD3" t="n">
-        <v>753338.4168677224</v>
+        <v>876624.0247937721</v>
       </c>
       <c r="AE3" t="n">
-        <v>1030750.856903766</v>
+        <v>1199435.664645345</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.878426197216405e-07</v>
+        <v>1.617456436107151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>932377.4417887833</v>
+        <v>1084963.208230121</v>
       </c>
     </row>
     <row r="4">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>692.7338632019555</v>
+        <v>806.6081812036044</v>
       </c>
       <c r="AB4" t="n">
-        <v>947.8290328940551</v>
+        <v>1103.636898564261</v>
       </c>
       <c r="AC4" t="n">
-        <v>857.3695602810484</v>
+        <v>998.3073419294027</v>
       </c>
       <c r="AD4" t="n">
-        <v>692733.8632019554</v>
+        <v>806608.1812036044</v>
       </c>
       <c r="AE4" t="n">
-        <v>947829.0328940551</v>
+        <v>1103636.898564261</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.284920161709795e-07</v>
+        <v>1.691510808414113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.09722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>857369.5602810484</v>
+        <v>998307.3419294027</v>
       </c>
     </row>
     <row r="5">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.056350492703</v>
+        <v>764.0159198403726</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.4357772062765</v>
+        <v>1045.360287529132</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.5492749606623</v>
+        <v>945.5925688597288</v>
       </c>
       <c r="AD5" t="n">
-        <v>650056.350492703</v>
+        <v>764015.9198403726</v>
       </c>
       <c r="AE5" t="n">
-        <v>889435.7772062765</v>
+        <v>1045360.287529132</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.509690445183627e-07</v>
+        <v>1.732459072619357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.53298611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>804549.2749606622</v>
+        <v>945592.5688597288</v>
       </c>
     </row>
     <row r="6">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>628.995100810192</v>
+        <v>742.7840779572692</v>
       </c>
       <c r="AB6" t="n">
-        <v>860.6188462339053</v>
+        <v>1016.309944781913</v>
       </c>
       <c r="AC6" t="n">
-        <v>778.4825914354777</v>
+        <v>919.314750051893</v>
       </c>
       <c r="AD6" t="n">
-        <v>628995.1008101919</v>
+        <v>742784.0779572693</v>
       </c>
       <c r="AE6" t="n">
-        <v>860618.8462339053</v>
+        <v>1016309.944781913</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.605836449467731e-07</v>
+        <v>1.749974786551187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.28993055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>778482.5914354777</v>
+        <v>919314.7500518931</v>
       </c>
     </row>
     <row r="7">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>629.8753032222237</v>
+        <v>743.6642803693009</v>
       </c>
       <c r="AB7" t="n">
-        <v>861.8231780058369</v>
+        <v>1017.514276553845</v>
       </c>
       <c r="AC7" t="n">
-        <v>779.5719834733864</v>
+        <v>920.4041420898016</v>
       </c>
       <c r="AD7" t="n">
-        <v>629875.3032222237</v>
+        <v>743664.2803693009</v>
       </c>
       <c r="AE7" t="n">
-        <v>861823.1780058369</v>
+        <v>1017514.276553845</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.613053843891204e-07</v>
+        <v>1.751289639071539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>779571.9834733864</v>
+        <v>920404.1420898016</v>
       </c>
     </row>
   </sheetData>
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>592.6170700667543</v>
+        <v>706.8809274380374</v>
       </c>
       <c r="AB2" t="n">
-        <v>810.8448196852847</v>
+        <v>967.1856703062879</v>
       </c>
       <c r="AC2" t="n">
-        <v>733.4589281223724</v>
+        <v>874.8788273858689</v>
       </c>
       <c r="AD2" t="n">
-        <v>592617.0700667544</v>
+        <v>706880.9274380374</v>
       </c>
       <c r="AE2" t="n">
-        <v>810844.8196852847</v>
+        <v>967185.6703062878</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.598635685231874e-07</v>
+        <v>1.88102332581477e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.30381944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>733458.9281223724</v>
+        <v>874878.8273858689</v>
       </c>
     </row>
     <row r="3">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>512.8605102973645</v>
+        <v>618.4923099021725</v>
       </c>
       <c r="AB3" t="n">
-        <v>701.7183759977199</v>
+        <v>846.2484643631199</v>
       </c>
       <c r="AC3" t="n">
-        <v>634.7473590604232</v>
+        <v>765.4836986414823</v>
       </c>
       <c r="AD3" t="n">
-        <v>512860.5102973645</v>
+        <v>618492.3099021724</v>
       </c>
       <c r="AE3" t="n">
-        <v>701718.3759977199</v>
+        <v>846248.4643631199</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027555763277206e-06</v>
+        <v>2.013678217075839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.63715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>634747.3590604231</v>
+        <v>765483.6986414823</v>
       </c>
     </row>
     <row r="4">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>516.8640244077994</v>
+        <v>622.4958240126074</v>
       </c>
       <c r="AB4" t="n">
-        <v>707.1961606261941</v>
+        <v>851.726248991594</v>
       </c>
       <c r="AC4" t="n">
-        <v>639.7023516120746</v>
+        <v>770.4386911931339</v>
       </c>
       <c r="AD4" t="n">
-        <v>516864.0244077994</v>
+        <v>622495.8240126073</v>
       </c>
       <c r="AE4" t="n">
-        <v>707196.1606261941</v>
+        <v>851726.2489915941</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026576339210902e-06</v>
+        <v>2.011758861476775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.66319444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>639702.3516120746</v>
+        <v>770438.6911931338</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1453.934158190883</v>
+        <v>1637.011534156601</v>
       </c>
       <c r="AB2" t="n">
-        <v>1989.336858284836</v>
+        <v>2239.831400884927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1799.477340581947</v>
+        <v>2026.065035607584</v>
       </c>
       <c r="AD2" t="n">
-        <v>1453934.158190883</v>
+        <v>1637011.534156601</v>
       </c>
       <c r="AE2" t="n">
-        <v>1989336.858284836</v>
+        <v>2239831.400884927</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952716828489374e-07</v>
+        <v>1.02415374357308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.89583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1799477.340581947</v>
+        <v>2026065.035607584</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1063.36372564624</v>
+        <v>1215.828641287338</v>
       </c>
       <c r="AB3" t="n">
-        <v>1454.941161725857</v>
+        <v>1663.550385583369</v>
       </c>
       <c r="AC3" t="n">
-        <v>1316.083619273487</v>
+        <v>1504.783471590921</v>
       </c>
       <c r="AD3" t="n">
-        <v>1063363.72564624</v>
+        <v>1215828.641287338</v>
       </c>
       <c r="AE3" t="n">
-        <v>1454941.161725857</v>
+        <v>1663550.385583369</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.42558111854212e-07</v>
+        <v>1.277557276765406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.97743055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1316083.619273487</v>
+        <v>1504783.471590922</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>954.1361224375134</v>
+        <v>1096.425331588595</v>
       </c>
       <c r="AB4" t="n">
-        <v>1305.491136233917</v>
+        <v>1500.177509551301</v>
       </c>
       <c r="AC4" t="n">
-        <v>1180.896894460069</v>
+        <v>1357.002673552083</v>
       </c>
       <c r="AD4" t="n">
-        <v>954136.1224375134</v>
+        <v>1096425.331588595</v>
       </c>
       <c r="AE4" t="n">
-        <v>1305491.136233917</v>
+        <v>1500177.509551301</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.993429528013307e-07</v>
+        <v>1.375254528473836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1180896.894460069</v>
+        <v>1357002.673552083</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>909.1695668401954</v>
+        <v>1031.27813422894</v>
       </c>
       <c r="AB5" t="n">
-        <v>1243.965911081242</v>
+        <v>1411.040240032316</v>
       </c>
       <c r="AC5" t="n">
-        <v>1125.243550444769</v>
+        <v>1276.372539931046</v>
       </c>
       <c r="AD5" t="n">
-        <v>909169.5668401954</v>
+        <v>1031278.134228939</v>
       </c>
       <c r="AE5" t="n">
-        <v>1243965.911081242</v>
+        <v>1411040.240032316</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.292788297608106e-07</v>
+        <v>1.426758642206346e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1125243.550444769</v>
+        <v>1276372.539931046</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>866.9897129012091</v>
+        <v>999.0179642162545</v>
       </c>
       <c r="AB6" t="n">
-        <v>1186.253574078097</v>
+        <v>1366.900452202705</v>
       </c>
       <c r="AC6" t="n">
-        <v>1073.039197885431</v>
+        <v>1236.445391501312</v>
       </c>
       <c r="AD6" t="n">
-        <v>866989.7129012091</v>
+        <v>999017.9642162545</v>
       </c>
       <c r="AE6" t="n">
-        <v>1186253.574078097</v>
+        <v>1366900.452202705</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.489728559299969e-07</v>
+        <v>1.460641844126295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.47048611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1073039.197885431</v>
+        <v>1236445.391501312</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>844.9363024369762</v>
+        <v>966.9595289711486</v>
       </c>
       <c r="AB7" t="n">
-        <v>1156.07912495313</v>
+        <v>1323.036686782006</v>
       </c>
       <c r="AC7" t="n">
-        <v>1045.744555834845</v>
+        <v>1196.767922289183</v>
       </c>
       <c r="AD7" t="n">
-        <v>844936.3024369762</v>
+        <v>966959.5289711487</v>
       </c>
       <c r="AE7" t="n">
-        <v>1156079.12495313</v>
+        <v>1323036.686782006</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.615358738386515e-07</v>
+        <v>1.482256280344974e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.11458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1045744.555834845</v>
+        <v>1196767.922289183</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>815.8149371657083</v>
+        <v>947.928439826774</v>
       </c>
       <c r="AB8" t="n">
-        <v>1116.233988245018</v>
+        <v>1296.997511022275</v>
       </c>
       <c r="AC8" t="n">
-        <v>1009.702183051155</v>
+        <v>1173.213888917748</v>
       </c>
       <c r="AD8" t="n">
-        <v>815814.9371657083</v>
+        <v>947928.4398267741</v>
       </c>
       <c r="AE8" t="n">
-        <v>1116233.988245018</v>
+        <v>1296997.511022275</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.70605176290804e-07</v>
+        <v>1.497859844777126e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.86284722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1009702.183051155</v>
+        <v>1173213.888917748</v>
       </c>
     </row>
     <row r="9">
@@ -10314,28 +10314,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>800.8946913446058</v>
+        <v>923.0031692247986</v>
       </c>
       <c r="AB9" t="n">
-        <v>1095.819449677796</v>
+        <v>1262.893656159321</v>
       </c>
       <c r="AC9" t="n">
-        <v>991.2359793928033</v>
+        <v>1142.364858097853</v>
       </c>
       <c r="AD9" t="n">
-        <v>800894.6913446058</v>
+        <v>923003.1692247987</v>
       </c>
       <c r="AE9" t="n">
-        <v>1095819.449677796</v>
+        <v>1262893.656159321</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.770182978136982e-07</v>
+        <v>1.508893499837328e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.68923611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>991235.9793928033</v>
+        <v>1142364.858097853</v>
       </c>
     </row>
     <row r="10">
@@ -10420,28 +10420,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>781.8639006772712</v>
+        <v>903.801786356872</v>
       </c>
       <c r="AB10" t="n">
-        <v>1069.780682307519</v>
+        <v>1236.621477014198</v>
       </c>
       <c r="AC10" t="n">
-        <v>967.6823154347063</v>
+        <v>1118.600058857106</v>
       </c>
       <c r="AD10" t="n">
-        <v>781863.9006772712</v>
+        <v>903801.7863568719</v>
       </c>
       <c r="AE10" t="n">
-        <v>1069780.682307519</v>
+        <v>1236621.477014198</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.840535878425446e-07</v>
+        <v>1.520997584119788e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.49826388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>967682.3154347063</v>
+        <v>1118600.058857105</v>
       </c>
     </row>
     <row r="11">
@@ -10526,28 +10526,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>765.7240482325451</v>
+        <v>887.6619339121459</v>
       </c>
       <c r="AB11" t="n">
-        <v>1047.697424152608</v>
+        <v>1214.538218859286</v>
       </c>
       <c r="AC11" t="n">
-        <v>947.7066524440526</v>
+        <v>1098.624395866452</v>
       </c>
       <c r="AD11" t="n">
-        <v>765724.0482325451</v>
+        <v>887661.9339121459</v>
       </c>
       <c r="AE11" t="n">
-        <v>1047697.424152608</v>
+        <v>1214538.218859287</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.882173309208418e-07</v>
+        <v>1.528161225837979e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>947706.6524440525</v>
+        <v>1098624.395866452</v>
       </c>
     </row>
     <row r="12">
@@ -10632,28 +10632,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>755.8055615115869</v>
+        <v>877.7434471911877</v>
       </c>
       <c r="AB12" t="n">
-        <v>1034.126513048241</v>
+        <v>1200.96730775492</v>
       </c>
       <c r="AC12" t="n">
-        <v>935.430930048593</v>
+        <v>1086.348673470992</v>
       </c>
       <c r="AD12" t="n">
-        <v>755805.5615115869</v>
+        <v>877743.4471911876</v>
       </c>
       <c r="AE12" t="n">
-        <v>1034126.513048241</v>
+        <v>1200967.30775492</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.908017231763364e-07</v>
+        <v>1.532607624145821e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.31597222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>935430.9300485931</v>
+        <v>1086348.673470992</v>
       </c>
     </row>
     <row r="13">
@@ -10738,28 +10738,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>759.1266498978362</v>
+        <v>881.0645355774369</v>
       </c>
       <c r="AB13" t="n">
-        <v>1038.670572694387</v>
+        <v>1205.511367401065</v>
       </c>
       <c r="AC13" t="n">
-        <v>939.5413110197383</v>
+        <v>1090.459054442137</v>
       </c>
       <c r="AD13" t="n">
-        <v>759126.6498978361</v>
+        <v>881064.5355774369</v>
       </c>
       <c r="AE13" t="n">
-        <v>1038670.572694387</v>
+        <v>1205511.367401065</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.908735118501002e-07</v>
+        <v>1.532731135209928e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.31597222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>939541.3110197382</v>
+        <v>1090459.054442137</v>
       </c>
     </row>
   </sheetData>
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.0360126094441</v>
+        <v>626.977853032849</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.6949942374954</v>
+        <v>857.8587588302539</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.4398930331043</v>
+        <v>775.9859228998237</v>
       </c>
       <c r="AD2" t="n">
-        <v>515036.0126094441</v>
+        <v>626977.853032849</v>
       </c>
       <c r="AE2" t="n">
-        <v>704694.9942374954</v>
+        <v>857858.758830254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012033002503367e-06</v>
+        <v>2.028782459936232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.56597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>637439.8930331044</v>
+        <v>775985.9228998236</v>
       </c>
     </row>
     <row r="3">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.8557637893836</v>
+        <v>597.712263358217</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.7692904601669</v>
+        <v>817.8162879307278</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.3246423882068</v>
+        <v>739.7650492229874</v>
       </c>
       <c r="AD3" t="n">
-        <v>485855.7637893836</v>
+        <v>597712.263358217</v>
       </c>
       <c r="AE3" t="n">
-        <v>664769.2904601669</v>
+        <v>817816.2879307277</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039067133473773e-06</v>
+        <v>2.082976711108586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>601324.6423882068</v>
+        <v>739765.0492229874</v>
       </c>
     </row>
   </sheetData>
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1141.269979312842</v>
+        <v>1298.127415021289</v>
       </c>
       <c r="AB2" t="n">
-        <v>1561.535934973845</v>
+        <v>1776.155198571812</v>
       </c>
       <c r="AC2" t="n">
-        <v>1412.50513696939</v>
+        <v>1606.641439269595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1141269.979312842</v>
+        <v>1298127.415021289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1561535.934973845</v>
+        <v>1776155.198571812</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.89229534385062e-07</v>
+        <v>1.220676719905945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.33680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1412505.13696939</v>
+        <v>1606641.439269595</v>
       </c>
     </row>
     <row r="3">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>885.8864770729094</v>
+        <v>1013.386498402983</v>
       </c>
       <c r="AB3" t="n">
-        <v>1212.108960484215</v>
+        <v>1386.560114571978</v>
       </c>
       <c r="AC3" t="n">
-        <v>1096.426982501212</v>
+        <v>1254.228763286571</v>
       </c>
       <c r="AD3" t="n">
-        <v>885886.4770729095</v>
+        <v>1013386.498402983</v>
       </c>
       <c r="AE3" t="n">
-        <v>1212108.960484216</v>
+        <v>1386560.114571978</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198905766385397e-07</v>
+        <v>1.452087134753838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.33680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1096426.982501212</v>
+        <v>1254228.763286571</v>
       </c>
     </row>
     <row r="4">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>802.7309085499021</v>
+        <v>930.230840371425</v>
       </c>
       <c r="AB4" t="n">
-        <v>1098.331843066268</v>
+        <v>1272.782874684482</v>
       </c>
       <c r="AC4" t="n">
-        <v>993.5085934824464</v>
+        <v>1151.310263486578</v>
       </c>
       <c r="AD4" t="n">
-        <v>802730.9085499021</v>
+        <v>930230.8403714249</v>
       </c>
       <c r="AE4" t="n">
-        <v>1098331.843066268</v>
+        <v>1272782.874684482</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687018799327749e-07</v>
+        <v>1.538535579904555e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.86111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>993508.5934824464</v>
+        <v>1151310.263486578</v>
       </c>
     </row>
     <row r="5">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>765.8480216021305</v>
+        <v>883.5337911878894</v>
       </c>
       <c r="AB5" t="n">
-        <v>1047.867049986194</v>
+        <v>1208.889911863155</v>
       </c>
       <c r="AC5" t="n">
-        <v>947.8600894261524</v>
+        <v>1093.515155362583</v>
       </c>
       <c r="AD5" t="n">
-        <v>765848.0216021305</v>
+        <v>883533.7911878894</v>
       </c>
       <c r="AE5" t="n">
-        <v>1047867.049986194</v>
+        <v>1208889.911863155</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.942768135650246e-07</v>
+        <v>1.583830687761302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.14930555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>947860.0894261524</v>
+        <v>1093515.155362583</v>
       </c>
     </row>
     <row r="6">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>729.2259842686343</v>
+        <v>846.9970052004138</v>
       </c>
       <c r="AB6" t="n">
-        <v>997.7591628562442</v>
+        <v>1158.898669385855</v>
       </c>
       <c r="AC6" t="n">
-        <v>902.5344287170237</v>
+        <v>1048.295006904166</v>
       </c>
       <c r="AD6" t="n">
-        <v>729225.9842686343</v>
+        <v>846997.0052004138</v>
       </c>
       <c r="AE6" t="n">
-        <v>997759.1628562441</v>
+        <v>1158898.669385855</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.097760194530513e-07</v>
+        <v>1.611280933086937e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.74131944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>902534.4287170237</v>
+        <v>1048295.006904166</v>
       </c>
     </row>
     <row r="7">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>706.9312605416724</v>
+        <v>824.5316892728596</v>
       </c>
       <c r="AB7" t="n">
-        <v>967.2545382792212</v>
+        <v>1128.160633033985</v>
       </c>
       <c r="AC7" t="n">
-        <v>874.9411226961224</v>
+        <v>1020.490565600614</v>
       </c>
       <c r="AD7" t="n">
-        <v>706931.2605416724</v>
+        <v>824531.6892728596</v>
       </c>
       <c r="AE7" t="n">
-        <v>967254.5382792212</v>
+        <v>1128160.633033985</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.210956642027338e-07</v>
+        <v>1.631328865066334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.44618055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>874941.1226961224</v>
+        <v>1020490.565600614</v>
       </c>
     </row>
     <row r="8">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>686.6806663316659</v>
+        <v>804.281095062853</v>
       </c>
       <c r="AB8" t="n">
-        <v>939.546781887926</v>
+        <v>1100.452876642689</v>
       </c>
       <c r="AC8" t="n">
-        <v>849.877755686732</v>
+        <v>995.4271985912234</v>
       </c>
       <c r="AD8" t="n">
-        <v>686680.6663316658</v>
+        <v>804281.095062853</v>
       </c>
       <c r="AE8" t="n">
-        <v>939546.781887926</v>
+        <v>1100452.87664269</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.27215735869595e-07</v>
+        <v>1.642167966751898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.28993055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>849877.755686732</v>
+        <v>995427.1985912233</v>
       </c>
     </row>
     <row r="9">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>687.3138989813882</v>
+        <v>804.9143277125754</v>
       </c>
       <c r="AB9" t="n">
-        <v>940.4131987355294</v>
+        <v>1101.319293490293</v>
       </c>
       <c r="AC9" t="n">
-        <v>850.6614829264237</v>
+        <v>996.210925830915</v>
       </c>
       <c r="AD9" t="n">
-        <v>687313.8989813882</v>
+        <v>804914.3277125754</v>
       </c>
       <c r="AE9" t="n">
-        <v>940413.1987355293</v>
+        <v>1101319.293490293</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.28086477773417e-07</v>
+        <v>1.643710115365698e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>850661.4829264237</v>
+        <v>996210.925830915</v>
       </c>
     </row>
     <row r="10">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>689.5337483439657</v>
+        <v>807.1341770751529</v>
       </c>
       <c r="AB10" t="n">
-        <v>943.4504945662497</v>
+        <v>1104.356589321014</v>
       </c>
       <c r="AC10" t="n">
-        <v>853.4089035059318</v>
+        <v>998.9583464104231</v>
       </c>
       <c r="AD10" t="n">
-        <v>689533.7483439657</v>
+        <v>807134.177075153</v>
       </c>
       <c r="AE10" t="n">
-        <v>943450.4945662498</v>
+        <v>1104356.589321014</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.28111356113526e-07</v>
+        <v>1.643754176754663e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>853408.9035059318</v>
+        <v>998958.3464104232</v>
       </c>
     </row>
   </sheetData>
@@ -12583,28 +12583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1297.096208392391</v>
+        <v>1466.962874986835</v>
       </c>
       <c r="AB2" t="n">
-        <v>1774.744256168528</v>
+        <v>2007.163323391477</v>
       </c>
       <c r="AC2" t="n">
-        <v>1605.365155229011</v>
+        <v>1815.602472878411</v>
       </c>
       <c r="AD2" t="n">
-        <v>1297096.208392391</v>
+        <v>1466962.874986835</v>
       </c>
       <c r="AE2" t="n">
-        <v>1774744.256168528</v>
+        <v>2007163.323391477</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.400114462500015e-07</v>
+        <v>1.116124076969736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.06423611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1605365.155229011</v>
+        <v>1815602.472878411</v>
       </c>
     </row>
     <row r="3">
@@ -12689,28 +12689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>979.078307038655</v>
+        <v>1118.938398551622</v>
       </c>
       <c r="AB3" t="n">
-        <v>1339.618133576723</v>
+        <v>1530.980880976532</v>
       </c>
       <c r="AC3" t="n">
-        <v>1211.766859074019</v>
+        <v>1384.866214441293</v>
       </c>
       <c r="AD3" t="n">
-        <v>979078.307038655</v>
+        <v>1118938.398551622</v>
       </c>
       <c r="AE3" t="n">
-        <v>1339618.133576723</v>
+        <v>1530980.880976532</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.793923667884502e-07</v>
+        <v>1.359192231757706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.15277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1211766.859074019</v>
+        <v>1384866.214441293</v>
       </c>
     </row>
     <row r="4">
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>883.7191149156423</v>
+        <v>1013.577014734783</v>
       </c>
       <c r="AB4" t="n">
-        <v>1209.143479963373</v>
+        <v>1386.820787422134</v>
       </c>
       <c r="AC4" t="n">
-        <v>1093.7445232792</v>
+        <v>1254.464557885765</v>
       </c>
       <c r="AD4" t="n">
-        <v>883719.1149156423</v>
+        <v>1013577.014734783</v>
       </c>
       <c r="AE4" t="n">
-        <v>1209143.479963373</v>
+        <v>1386820.787422134</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.323610167237507e-07</v>
+        <v>1.451564932064502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.42534722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1093744.5232792</v>
+        <v>1254464.557885765</v>
       </c>
     </row>
     <row r="5">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.3124745540596</v>
+        <v>963.2556257192213</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.174890836629</v>
+        <v>1317.96884294804</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.35819950069</v>
+        <v>1192.183746357967</v>
       </c>
       <c r="AD5" t="n">
-        <v>833312.4745540596</v>
+        <v>963255.6257192213</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140174.890836629</v>
+        <v>1317968.84294804</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.607588433112452e-07</v>
+        <v>1.50108826195747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031358.19950069</v>
+        <v>1192183.746357967</v>
       </c>
     </row>
     <row r="6">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>804.2490898207878</v>
+        <v>924.190138800675</v>
       </c>
       <c r="AB6" t="n">
-        <v>1100.409085658524</v>
+        <v>1264.517720298437</v>
       </c>
       <c r="AC6" t="n">
-        <v>995.387586957126</v>
+        <v>1143.83392383492</v>
       </c>
       <c r="AD6" t="n">
-        <v>804249.0898207879</v>
+        <v>924190.1388006749</v>
       </c>
       <c r="AE6" t="n">
-        <v>1100409.085658524</v>
+        <v>1264517.720298437</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.787481961194604e-07</v>
+        <v>1.532460122439023e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.07986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>995387.586957126</v>
+        <v>1143833.92383492</v>
       </c>
     </row>
     <row r="7">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>772.0637382244468</v>
+        <v>901.9215485350369</v>
       </c>
       <c r="AB7" t="n">
-        <v>1056.371667686911</v>
+        <v>1234.048852676124</v>
       </c>
       <c r="AC7" t="n">
-        <v>955.5530383498188</v>
+        <v>1116.272962175157</v>
       </c>
       <c r="AD7" t="n">
-        <v>772063.7382244468</v>
+        <v>901921.5485350369</v>
       </c>
       <c r="AE7" t="n">
-        <v>1056371.667686911</v>
+        <v>1234048.852676124</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.896929378686322e-07</v>
+        <v>1.551546796363437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.78472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>955553.0383498189</v>
+        <v>1116272.962175157</v>
       </c>
     </row>
     <row r="8">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>753.9247409765886</v>
+        <v>873.9510413024963</v>
       </c>
       <c r="AB8" t="n">
-        <v>1031.553091416311</v>
+        <v>1195.778370708873</v>
       </c>
       <c r="AC8" t="n">
-        <v>933.103112165394</v>
+        <v>1081.654961293901</v>
       </c>
       <c r="AD8" t="n">
-        <v>753924.7409765886</v>
+        <v>873951.0413024962</v>
       </c>
       <c r="AE8" t="n">
-        <v>1031553.091416311</v>
+        <v>1195778.370708873</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.977125816002078e-07</v>
+        <v>1.565532354762395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>933103.112165394</v>
+        <v>1081654.961293901</v>
       </c>
     </row>
     <row r="9">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>735.9721167700671</v>
+        <v>855.8278248953826</v>
       </c>
       <c r="AB9" t="n">
-        <v>1006.989518963066</v>
+        <v>1170.98138648078</v>
       </c>
       <c r="AC9" t="n">
-        <v>910.8838525918964</v>
+        <v>1059.224566437752</v>
       </c>
       <c r="AD9" t="n">
-        <v>735972.1167700671</v>
+        <v>855827.8248953826</v>
       </c>
       <c r="AE9" t="n">
-        <v>1006989.518963066</v>
+        <v>1170981.38648078</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.050253266441978e-07</v>
+        <v>1.578285143576034e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.37673611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>910883.8525918963</v>
+        <v>1059224.566437752</v>
       </c>
     </row>
     <row r="10">
@@ -13431,28 +13431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>722.2430613575472</v>
+        <v>842.0987694828627</v>
       </c>
       <c r="AB10" t="n">
-        <v>988.2048196644781</v>
+        <v>1152.196687182193</v>
       </c>
       <c r="AC10" t="n">
-        <v>893.8919386298749</v>
+        <v>1042.23265247573</v>
       </c>
       <c r="AD10" t="n">
-        <v>722243.0613575472</v>
+        <v>842098.7694828628</v>
       </c>
       <c r="AE10" t="n">
-        <v>988204.8196644781</v>
+        <v>1152196.687182193</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.091204638688322e-07</v>
+        <v>1.585426705311673e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>893891.9386298748</v>
+        <v>1042232.652475731</v>
       </c>
     </row>
     <row r="11">
@@ -13537,28 +13537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>723.5090563308576</v>
+        <v>843.3647644561731</v>
       </c>
       <c r="AB11" t="n">
-        <v>989.9370098387178</v>
+        <v>1153.928877356433</v>
       </c>
       <c r="AC11" t="n">
-        <v>895.4588110050294</v>
+        <v>1043.799524850885</v>
       </c>
       <c r="AD11" t="n">
-        <v>723509.0563308576</v>
+        <v>843364.7644561732</v>
       </c>
       <c r="AE11" t="n">
-        <v>989937.0098387178</v>
+        <v>1153928.877356433</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.090717122352056e-07</v>
+        <v>1.585341686719582e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>895458.8110050294</v>
+        <v>1043799.524850885</v>
       </c>
     </row>
   </sheetData>
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1636.389105663602</v>
+        <v>1832.714845962169</v>
       </c>
       <c r="AB2" t="n">
-        <v>2238.9797667612</v>
+        <v>2507.601305918077</v>
       </c>
       <c r="AC2" t="n">
-        <v>2025.294680249349</v>
+        <v>2268.279356721792</v>
       </c>
       <c r="AD2" t="n">
-        <v>1636389.105663602</v>
+        <v>1832714.845962169</v>
       </c>
       <c r="AE2" t="n">
-        <v>2238979.7667612</v>
+        <v>2507601.305918077</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.534985820544133e-07</v>
+        <v>9.40910905610833e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.90104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2025294.680249349</v>
+        <v>2268279.356721792</v>
       </c>
     </row>
     <row r="3">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1160.588589021905</v>
+        <v>1315.564628025074</v>
       </c>
       <c r="AB3" t="n">
-        <v>1587.968509054694</v>
+        <v>1800.013562679135</v>
       </c>
       <c r="AC3" t="n">
-        <v>1436.415023278314</v>
+        <v>1628.22279459194</v>
       </c>
       <c r="AD3" t="n">
-        <v>1160588.589021905</v>
+        <v>1315564.628025074</v>
       </c>
       <c r="AE3" t="n">
-        <v>1587968.509054694</v>
+        <v>1800013.562679135</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.079840949032669e-07</v>
+        <v>1.203526038713521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.84548611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1436415.023278314</v>
+        <v>1628222.79459194</v>
       </c>
     </row>
     <row r="4">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1035.530193279093</v>
+        <v>1180.168806958413</v>
       </c>
       <c r="AB4" t="n">
-        <v>1416.858094812343</v>
+        <v>1614.759027053674</v>
       </c>
       <c r="AC4" t="n">
-        <v>1281.635146816277</v>
+        <v>1460.648691840199</v>
       </c>
       <c r="AD4" t="n">
-        <v>1035530.193279093</v>
+        <v>1180168.806958413</v>
       </c>
       <c r="AE4" t="n">
-        <v>1416858.094812343</v>
+        <v>1614759.027053674</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.682630903219025e-07</v>
+        <v>1.30599633585167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.58854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1281635.146816277</v>
+        <v>1460648.691840199</v>
       </c>
     </row>
     <row r="5">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>972.4039344542168</v>
+        <v>1106.619871463666</v>
       </c>
       <c r="AB5" t="n">
-        <v>1330.485962554158</v>
+        <v>1514.126128759731</v>
       </c>
       <c r="AC5" t="n">
-        <v>1203.506249636765</v>
+        <v>1369.62005612027</v>
       </c>
       <c r="AD5" t="n">
-        <v>972403.9344542169</v>
+        <v>1106619.871463666</v>
       </c>
       <c r="AE5" t="n">
-        <v>1330485.962554158</v>
+        <v>1514126.128759731</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.017435784096149e-07</v>
+        <v>1.362910946635271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.47743055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1203506.249636765</v>
+        <v>1369620.05612027</v>
       </c>
     </row>
     <row r="6">
@@ -14258,28 +14258,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>929.7925413915715</v>
+        <v>1064.093729747041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1272.18317468386</v>
+        <v>1455.939985542082</v>
       </c>
       <c r="AC6" t="n">
-        <v>1150.767798012332</v>
+        <v>1316.987116746549</v>
       </c>
       <c r="AD6" t="n">
-        <v>929792.5413915715</v>
+        <v>1064093.729747041</v>
       </c>
       <c r="AE6" t="n">
-        <v>1272183.17468386</v>
+        <v>1455939.985542082</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.208248685284726e-07</v>
+        <v>1.395347875198518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.87847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1150767.798012332</v>
+        <v>1316987.116746549</v>
       </c>
     </row>
     <row r="7">
@@ -14364,28 +14364,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>906.0913922380312</v>
+        <v>1040.221988392909</v>
       </c>
       <c r="AB7" t="n">
-        <v>1239.754216791082</v>
+        <v>1423.277615874457</v>
       </c>
       <c r="AC7" t="n">
-        <v>1121.433814346512</v>
+        <v>1287.441997798078</v>
       </c>
       <c r="AD7" t="n">
-        <v>906091.3922380311</v>
+        <v>1040221.988392909</v>
       </c>
       <c r="AE7" t="n">
-        <v>1239754.216791082</v>
+        <v>1423277.615874457</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356005161174277e-07</v>
+        <v>1.420465496823326e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1121433.814346512</v>
+        <v>1287441.997798078</v>
       </c>
     </row>
     <row r="8">
@@ -14470,28 +14470,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>885.1942884718089</v>
+        <v>1009.158141011981</v>
       </c>
       <c r="AB8" t="n">
-        <v>1211.161877502984</v>
+        <v>1380.774689447645</v>
       </c>
       <c r="AC8" t="n">
-        <v>1095.57028779047</v>
+        <v>1248.995491016209</v>
       </c>
       <c r="AD8" t="n">
-        <v>885194.2884718089</v>
+        <v>1009158.141011981</v>
       </c>
       <c r="AE8" t="n">
-        <v>1211161.877502984</v>
+        <v>1380774.689447645</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.463293302902997e-07</v>
+        <v>1.438703769850256e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.13194444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1095570.28779047</v>
+        <v>1248995.491016209</v>
       </c>
     </row>
     <row r="9">
@@ -14576,28 +14576,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>859.0704699904967</v>
+        <v>993.286317491395</v>
       </c>
       <c r="AB9" t="n">
-        <v>1175.41811655532</v>
+        <v>1359.058160291345</v>
       </c>
       <c r="AC9" t="n">
-        <v>1063.237861220968</v>
+        <v>1229.351556923247</v>
       </c>
       <c r="AD9" t="n">
-        <v>859070.4699904966</v>
+        <v>993286.317491395</v>
       </c>
       <c r="AE9" t="n">
-        <v>1175418.116555321</v>
+        <v>1359058.160291345</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.535759854772395e-07</v>
+        <v>1.45102260338599e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1063237.861220968</v>
+        <v>1229351.556923246</v>
       </c>
     </row>
     <row r="10">
@@ -14682,28 +14682,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>842.7944879835887</v>
+        <v>977.0103354844871</v>
       </c>
       <c r="AB10" t="n">
-        <v>1153.14859992782</v>
+        <v>1336.788643663845</v>
       </c>
       <c r="AC10" t="n">
-        <v>1043.093716004933</v>
+        <v>1209.207411707212</v>
       </c>
       <c r="AD10" t="n">
-        <v>842794.4879835887</v>
+        <v>977010.3354844871</v>
       </c>
       <c r="AE10" t="n">
-        <v>1153148.59992782</v>
+        <v>1336788.643663845</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.589403925636756e-07</v>
+        <v>1.460141739899455e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.77604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1043093.716004933</v>
+        <v>1209207.411707212</v>
       </c>
     </row>
     <row r="11">
@@ -14788,28 +14788,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>829.3278245713078</v>
+        <v>953.3769284575002</v>
       </c>
       <c r="AB11" t="n">
-        <v>1134.722916939878</v>
+        <v>1304.452373537188</v>
       </c>
       <c r="AC11" t="n">
-        <v>1026.426554340751</v>
+        <v>1179.957269817203</v>
       </c>
       <c r="AD11" t="n">
-        <v>829327.8245713079</v>
+        <v>953376.9284575002</v>
       </c>
       <c r="AE11" t="n">
-        <v>1134722.916939878</v>
+        <v>1304452.373537188</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.643047996501115e-07</v>
+        <v>1.46926087641292e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.62847222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1026426.554340751</v>
+        <v>1179957.269817203</v>
       </c>
     </row>
     <row r="12">
@@ -14894,28 +14894,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>815.7199961332049</v>
+        <v>939.7691000193972</v>
       </c>
       <c r="AB12" t="n">
-        <v>1116.104085735844</v>
+        <v>1285.833542333155</v>
       </c>
       <c r="AC12" t="n">
-        <v>1009.584678255137</v>
+        <v>1163.115393731589</v>
       </c>
       <c r="AD12" t="n">
-        <v>815719.9961332049</v>
+        <v>939769.1000193972</v>
       </c>
       <c r="AE12" t="n">
-        <v>1116104.085735844</v>
+        <v>1285833.542333155</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.681634082561444e-07</v>
+        <v>1.475820255308571e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.52430555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1009584.678255137</v>
+        <v>1163115.393731589</v>
       </c>
     </row>
     <row r="13">
@@ -15000,28 +15000,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>803.5132222419994</v>
+        <v>927.3917339275997</v>
       </c>
       <c r="AB13" t="n">
-        <v>1099.40223917304</v>
+        <v>1268.898283995504</v>
       </c>
       <c r="AC13" t="n">
-        <v>994.4768324870982</v>
+        <v>1147.796412680899</v>
       </c>
       <c r="AD13" t="n">
-        <v>803513.2222419995</v>
+        <v>927391.7339275997</v>
       </c>
       <c r="AE13" t="n">
-        <v>1099402.23917304</v>
+        <v>1268898.283995504</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.714808705332825e-07</v>
+        <v>1.481459721310319e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>994476.8324870983</v>
+        <v>1147796.412680899</v>
       </c>
     </row>
     <row r="14">
@@ -15106,28 +15106,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>794.3473442561369</v>
+        <v>918.2258559417371</v>
       </c>
       <c r="AB14" t="n">
-        <v>1086.861080542785</v>
+        <v>1256.357125365249</v>
       </c>
       <c r="AC14" t="n">
-        <v>983.1325844348883</v>
+        <v>1136.452164628689</v>
       </c>
       <c r="AD14" t="n">
-        <v>794347.3442561369</v>
+        <v>918225.8559417371</v>
       </c>
       <c r="AE14" t="n">
-        <v>1086861.080542785</v>
+        <v>1256357.125365249</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.726808036973536e-07</v>
+        <v>1.483499528162015e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.40277777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>983132.5844348882</v>
+        <v>1136452.164628689</v>
       </c>
     </row>
     <row r="15">
@@ -15212,28 +15212,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>793.0651969152694</v>
+        <v>916.9437086008696</v>
       </c>
       <c r="AB15" t="n">
-        <v>1085.106789986662</v>
+        <v>1254.602834809125</v>
       </c>
       <c r="AC15" t="n">
-        <v>981.5457209072789</v>
+        <v>1134.86530110108</v>
       </c>
       <c r="AD15" t="n">
-        <v>793065.1969152695</v>
+        <v>916943.7086008696</v>
       </c>
       <c r="AE15" t="n">
-        <v>1085106.789986662</v>
+        <v>1254602.834809125</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.745395236966012e-07</v>
+        <v>1.486659228971505e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>23.35069444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>981545.7209072789</v>
+        <v>1134865.30110108</v>
       </c>
     </row>
   </sheetData>
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>994.1228814452695</v>
+        <v>1147.68254151459</v>
       </c>
       <c r="AB2" t="n">
-        <v>1360.202783999634</v>
+        <v>1570.309885480555</v>
       </c>
       <c r="AC2" t="n">
-        <v>1230.386939351305</v>
+        <v>1420.441713954056</v>
       </c>
       <c r="AD2" t="n">
-        <v>994122.8814452696</v>
+        <v>1147682.54151459</v>
       </c>
       <c r="AE2" t="n">
-        <v>1360202.783999634</v>
+        <v>1570309.885480555</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.434547812454805e-07</v>
+        <v>1.340624901682262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1230386.939351305</v>
+        <v>1420441.713954056</v>
       </c>
     </row>
     <row r="3">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>794.8112971812072</v>
+        <v>919.7171998762093</v>
       </c>
       <c r="AB3" t="n">
-        <v>1087.495881403025</v>
+        <v>1258.397647929845</v>
       </c>
       <c r="AC3" t="n">
-        <v>983.7068007919751</v>
+        <v>1138.297942583611</v>
       </c>
       <c r="AD3" t="n">
-        <v>794811.2971812072</v>
+        <v>919717.1998762093</v>
       </c>
       <c r="AE3" t="n">
-        <v>1087495.881403025</v>
+        <v>1258397.647929845</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.636222018925606e-07</v>
+        <v>1.557315197520456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.58159722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>983706.8007919751</v>
+        <v>1138297.942583611</v>
       </c>
     </row>
     <row r="4">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>729.7573023352269</v>
+        <v>844.9698073230542</v>
       </c>
       <c r="AB4" t="n">
-        <v>998.4861356750548</v>
+        <v>1156.124967816393</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.1920202703199</v>
+        <v>1045.786023519579</v>
       </c>
       <c r="AD4" t="n">
-        <v>729757.3023352269</v>
+        <v>844969.8073230542</v>
       </c>
       <c r="AE4" t="n">
-        <v>998486.1356750549</v>
+        <v>1156124.967816393</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084463551989591e-07</v>
+        <v>1.638143753116952e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>903192.0202703199</v>
+        <v>1045786.023519579</v>
       </c>
     </row>
     <row r="5">
@@ -15827,28 +15827,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>687.7640259680543</v>
+        <v>803.0617823019023</v>
       </c>
       <c r="AB5" t="n">
-        <v>941.029082336887</v>
+        <v>1098.784559130874</v>
       </c>
       <c r="AC5" t="n">
-        <v>851.2185874612659</v>
+        <v>993.9181029612374</v>
       </c>
       <c r="AD5" t="n">
-        <v>687764.0259680543</v>
+        <v>803061.7823019023</v>
       </c>
       <c r="AE5" t="n">
-        <v>941029.082336887</v>
+        <v>1098784.559130874</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.302348135920752e-07</v>
+        <v>1.677433499619281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>851218.5874612659</v>
+        <v>993918.1029612374</v>
       </c>
     </row>
     <row r="6">
@@ -15933,28 +15933,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.339205018881</v>
+        <v>773.4663691521368</v>
       </c>
       <c r="AB6" t="n">
-        <v>900.7687441827453</v>
+        <v>1058.290809201886</v>
       </c>
       <c r="AC6" t="n">
-        <v>814.8006394748162</v>
+        <v>957.2890196921367</v>
       </c>
       <c r="AD6" t="n">
-        <v>658339.205018881</v>
+        <v>773466.3691521368</v>
       </c>
       <c r="AE6" t="n">
-        <v>900768.7441827453</v>
+        <v>1058290.809201886</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.461943502889018e-07</v>
+        <v>1.706212320947505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.35069444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>814800.6394748162</v>
+        <v>957289.0196921367</v>
       </c>
     </row>
     <row r="7">
@@ -16039,28 +16039,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>645.1923790080119</v>
+        <v>760.3195431412676</v>
       </c>
       <c r="AB7" t="n">
-        <v>882.7806768376447</v>
+        <v>1040.302741856785</v>
       </c>
       <c r="AC7" t="n">
-        <v>798.5293280307205</v>
+        <v>941.0177082480411</v>
       </c>
       <c r="AD7" t="n">
-        <v>645192.3790080119</v>
+        <v>760319.5431412676</v>
       </c>
       <c r="AE7" t="n">
-        <v>882780.6768376447</v>
+        <v>1040302.741856785</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.509542121107626e-07</v>
+        <v>1.714795478185748e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.23784722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>798529.3280307206</v>
+        <v>941017.7082480411</v>
       </c>
     </row>
     <row r="8">
@@ -16145,28 +16145,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.0992895567072</v>
+        <v>763.2264536899629</v>
       </c>
       <c r="AB8" t="n">
-        <v>886.758040094212</v>
+        <v>1044.280105113352</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.1270973203457</v>
+        <v>944.615477537666</v>
       </c>
       <c r="AD8" t="n">
-        <v>648099.2895567071</v>
+        <v>763226.4536899629</v>
       </c>
       <c r="AE8" t="n">
-        <v>886758.040094212</v>
+        <v>1044280.105113352</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508014892715584e-07</v>
+        <v>1.714520082766339e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.23784722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>802127.0973203457</v>
+        <v>944615.477537666</v>
       </c>
     </row>
   </sheetData>
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.6647222466497</v>
+        <v>923.0182170387251</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085.927086994247</v>
+        <v>1262.914245242198</v>
       </c>
       <c r="AC2" t="n">
-        <v>982.2877299197544</v>
+        <v>1142.383482187558</v>
       </c>
       <c r="AD2" t="n">
-        <v>793664.7222466497</v>
+        <v>923018.217038725</v>
       </c>
       <c r="AE2" t="n">
-        <v>1085927.086994247</v>
+        <v>1262914.245242198</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.386778972070141e-07</v>
+        <v>1.564704878889018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>982287.7299197544</v>
+        <v>1142383.482187557</v>
       </c>
     </row>
     <row r="3">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>656.9109155708165</v>
+        <v>776.927349008844</v>
       </c>
       <c r="AB3" t="n">
-        <v>898.8144955482202</v>
+        <v>1063.026274529488</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.0329015871647</v>
+        <v>961.5725388551394</v>
       </c>
       <c r="AD3" t="n">
-        <v>656910.9155708165</v>
+        <v>776927.349008844</v>
       </c>
       <c r="AE3" t="n">
-        <v>898814.4955482202</v>
+        <v>1063026.274529488</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406258759228616e-07</v>
+        <v>1.75490722024175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.47048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>813032.9015871647</v>
+        <v>961572.5388551394</v>
       </c>
     </row>
     <row r="4">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>601.6302192580986</v>
+        <v>712.6508652518136</v>
       </c>
       <c r="AB4" t="n">
-        <v>823.1770080409611</v>
+        <v>975.0803537747877</v>
       </c>
       <c r="AC4" t="n">
-        <v>744.614149729718</v>
+        <v>882.0200533443929</v>
       </c>
       <c r="AD4" t="n">
-        <v>601630.2192580986</v>
+        <v>712650.8652518135</v>
       </c>
       <c r="AE4" t="n">
-        <v>823177.0080409611</v>
+        <v>975080.3537747876</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.772157876596287e-07</v>
+        <v>1.82317229984299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.55034722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>744614.149729718</v>
+        <v>882020.0533443929</v>
       </c>
     </row>
     <row r="5">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>585.786577176607</v>
+        <v>696.6366309697297</v>
       </c>
       <c r="AB5" t="n">
-        <v>801.4990379729065</v>
+        <v>953.1689719318861</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.0050946997363</v>
+        <v>862.1998630317603</v>
       </c>
       <c r="AD5" t="n">
-        <v>585786.577176607</v>
+        <v>696636.6309697297</v>
       </c>
       <c r="AE5" t="n">
-        <v>801499.0379729065</v>
+        <v>953168.971931886</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.869730974560999e-07</v>
+        <v>1.841376321069988e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.31597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>725005.0946997363</v>
+        <v>862199.8630317603</v>
       </c>
     </row>
   </sheetData>
@@ -30726,28 +30726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.4689156774889</v>
+        <v>780.9523587358734</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.1556847296013</v>
+        <v>1068.533470408906</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.3871421870249</v>
+        <v>966.5541356892244</v>
       </c>
       <c r="AD2" t="n">
-        <v>664468.9156774889</v>
+        <v>780952.3587358734</v>
       </c>
       <c r="AE2" t="n">
-        <v>909155.6847296013</v>
+        <v>1068533.470408906</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.150514627042677e-07</v>
+        <v>1.759677896189826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>822387.1421870249</v>
+        <v>966554.1356892243</v>
       </c>
     </row>
     <row r="3">
@@ -30832,28 +30832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.2732429101368</v>
+        <v>659.8751146680492</v>
       </c>
       <c r="AB3" t="n">
-        <v>755.6446155255619</v>
+        <v>902.8702435242888</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.5269539736803</v>
+        <v>816.7015746686754</v>
       </c>
       <c r="AD3" t="n">
-        <v>552273.2429101368</v>
+        <v>659875.1146680492</v>
       </c>
       <c r="AE3" t="n">
-        <v>755644.6155255619</v>
+        <v>902870.2435242888</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002601497742696e-06</v>
+        <v>1.928039860239882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>683526.9539736803</v>
+        <v>816701.5746686754</v>
       </c>
     </row>
     <row r="4">
@@ -30938,28 +30938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.5159476010035</v>
+        <v>647.9472271583238</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.5577653883443</v>
+        <v>886.5499816122242</v>
       </c>
       <c r="AC4" t="n">
-        <v>668.9754102355228</v>
+        <v>801.9388956478668</v>
       </c>
       <c r="AD4" t="n">
-        <v>540515.9476010036</v>
+        <v>647947.2271583239</v>
       </c>
       <c r="AE4" t="n">
-        <v>739557.7653883443</v>
+        <v>886549.9816122242</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013627535990016e-06</v>
+        <v>1.949243340674757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.48958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>668975.4102355228</v>
+        <v>801938.8956478669</v>
       </c>
     </row>
   </sheetData>
@@ -31235,28 +31235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.9947962202663</v>
+        <v>566.9657309164368</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.6486854929597</v>
+        <v>775.7475258026054</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.8422144564648</v>
+        <v>701.7112707084946</v>
       </c>
       <c r="AD2" t="n">
-        <v>457994.7962202663</v>
+        <v>566965.7309164368</v>
       </c>
       <c r="AE2" t="n">
-        <v>626648.6854929597</v>
+        <v>775747.5258026054</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045245637760985e-06</v>
+        <v>2.155922943103173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>566842.2144564649</v>
+        <v>701711.2707084946</v>
       </c>
     </row>
     <row r="3">
@@ -31341,28 +31341,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.9590972614177</v>
+        <v>570.9300319575882</v>
       </c>
       <c r="AB3" t="n">
-        <v>632.0728170700817</v>
+        <v>781.1716573797273</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.7486745286827</v>
+        <v>706.6177307807127</v>
       </c>
       <c r="AD3" t="n">
-        <v>461959.0972614177</v>
+        <v>570930.0319575882</v>
       </c>
       <c r="AE3" t="n">
-        <v>632072.8170700817</v>
+        <v>781171.6573797273</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045010129252504e-06</v>
+        <v>2.155437183413408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>571748.6745286827</v>
+        <v>706617.7307807127</v>
       </c>
     </row>
   </sheetData>
@@ -31638,28 +31638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1219.440664629799</v>
+        <v>1377.919028806777</v>
       </c>
       <c r="AB2" t="n">
-        <v>1668.492515271748</v>
+        <v>1885.329604710676</v>
       </c>
       <c r="AC2" t="n">
-        <v>1509.253931358164</v>
+        <v>1705.396393313807</v>
       </c>
       <c r="AD2" t="n">
-        <v>1219440.664629799</v>
+        <v>1377919.028806777</v>
       </c>
       <c r="AE2" t="n">
-        <v>1668492.515271748</v>
+        <v>1885329.604710676</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.633878201733271e-07</v>
+        <v>1.165546230870585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.21354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1509253.931358164</v>
+        <v>1705396.393313807</v>
       </c>
     </row>
     <row r="3">
@@ -31744,28 +31744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>926.9294669658709</v>
+        <v>1065.587289693923</v>
       </c>
       <c r="AB3" t="n">
-        <v>1268.265789944687</v>
+        <v>1457.98354015262</v>
       </c>
       <c r="AC3" t="n">
-        <v>1147.224282974581</v>
+        <v>1318.835637373204</v>
       </c>
       <c r="AD3" t="n">
-        <v>926929.4669658709</v>
+        <v>1065587.289693923</v>
       </c>
       <c r="AE3" t="n">
-        <v>1268265.789944687</v>
+        <v>1457983.54015262</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.995317615953748e-07</v>
+        <v>1.404745765373455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.72743055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1147224.282974581</v>
+        <v>1318835.637373204</v>
       </c>
     </row>
     <row r="4">
@@ -31850,28 +31850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>847.7977960131986</v>
+        <v>976.4601414250425</v>
       </c>
       <c r="AB4" t="n">
-        <v>1159.994346704304</v>
+        <v>1336.035843878864</v>
       </c>
       <c r="AC4" t="n">
-        <v>1049.286114317136</v>
+        <v>1208.526458077148</v>
       </c>
       <c r="AD4" t="n">
-        <v>847797.7960131987</v>
+        <v>976460.1414250425</v>
       </c>
       <c r="AE4" t="n">
-        <v>1159994.346704304</v>
+        <v>1336035.843878864</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.499764154785171e-07</v>
+        <v>1.493375032316743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.13888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1049286.114317136</v>
+        <v>1208526.458077148</v>
       </c>
     </row>
     <row r="5">
@@ -31956,28 +31956,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>800.8126421583071</v>
+        <v>919.650102454535</v>
       </c>
       <c r="AB5" t="n">
-        <v>1095.707186361347</v>
+        <v>1258.305842277381</v>
       </c>
       <c r="AC5" t="n">
-        <v>991.1344303297142</v>
+        <v>1138.214898733768</v>
       </c>
       <c r="AD5" t="n">
-        <v>800812.6421583071</v>
+        <v>919650.1024545351</v>
       </c>
       <c r="AE5" t="n">
-        <v>1095707.186361347</v>
+        <v>1258305.842277381</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.762204374596929e-07</v>
+        <v>1.539484743669376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.39236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>991134.4303297142</v>
+        <v>1138214.898733768</v>
       </c>
     </row>
     <row r="6">
@@ -32062,28 +32062,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>762.3204394518563</v>
+        <v>890.9826953551491</v>
       </c>
       <c r="AB6" t="n">
-        <v>1043.040456462248</v>
+        <v>1219.081831167259</v>
       </c>
       <c r="AC6" t="n">
-        <v>943.4941392139651</v>
+        <v>1102.734372192751</v>
       </c>
       <c r="AD6" t="n">
-        <v>762320.4394518563</v>
+        <v>890982.6953551491</v>
       </c>
       <c r="AE6" t="n">
-        <v>1043040.456462248</v>
+        <v>1219081.831167259</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.943401374391915e-07</v>
+        <v>1.571320341751494e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.89756944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>943494.1392139652</v>
+        <v>1102734.372192751</v>
       </c>
     </row>
     <row r="7">
@@ -32168,28 +32168,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>740.6324468378948</v>
+        <v>859.5551584801434</v>
       </c>
       <c r="AB7" t="n">
-        <v>1013.36598816112</v>
+        <v>1176.081288729803</v>
       </c>
       <c r="AC7" t="n">
-        <v>916.6517605191187</v>
+        <v>1063.837741173885</v>
       </c>
       <c r="AD7" t="n">
-        <v>740632.4468378949</v>
+        <v>859555.1584801434</v>
       </c>
       <c r="AE7" t="n">
-        <v>1013365.98816112</v>
+        <v>1176081.288729802</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.047294219383064e-07</v>
+        <v>1.589573904782274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>916651.7605191187</v>
+        <v>1063837.741173885</v>
       </c>
     </row>
     <row r="8">
@@ -32274,28 +32274,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>719.4173627484502</v>
+        <v>838.1694821901067</v>
       </c>
       <c r="AB8" t="n">
-        <v>984.338574166487</v>
+        <v>1146.820462960323</v>
       </c>
       <c r="AC8" t="n">
-        <v>890.3946821759025</v>
+        <v>1037.369527548018</v>
       </c>
       <c r="AD8" t="n">
-        <v>719417.3627484501</v>
+        <v>838169.4821901066</v>
       </c>
       <c r="AE8" t="n">
-        <v>984338.574166487</v>
+        <v>1146820.462960323</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.137646527704745e-07</v>
+        <v>1.605448448934634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>890394.6821759025</v>
+        <v>1037369.527548018</v>
       </c>
     </row>
     <row r="9">
@@ -32380,28 +32380,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>705.3592533463579</v>
+        <v>824.1113727880144</v>
       </c>
       <c r="AB9" t="n">
-        <v>965.1036486825291</v>
+        <v>1127.585537476365</v>
       </c>
       <c r="AC9" t="n">
-        <v>872.9955109837462</v>
+        <v>1019.970356355861</v>
       </c>
       <c r="AD9" t="n">
-        <v>705359.253346358</v>
+        <v>824111.3727880144</v>
       </c>
       <c r="AE9" t="n">
-        <v>965103.6486825291</v>
+        <v>1127585.537476365</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.178021946137325e-07</v>
+        <v>1.612542250681193e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>872995.5109837461</v>
+        <v>1019970.356355861</v>
       </c>
     </row>
     <row r="10">
@@ -32486,28 +32486,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>702.5808988282455</v>
+        <v>821.3330182699019</v>
       </c>
       <c r="AB10" t="n">
-        <v>961.302181458497</v>
+        <v>1123.784070252333</v>
       </c>
       <c r="AC10" t="n">
-        <v>869.5568504561827</v>
+        <v>1016.531695828298</v>
       </c>
       <c r="AD10" t="n">
-        <v>702580.8988282455</v>
+        <v>821333.0182699019</v>
       </c>
       <c r="AE10" t="n">
-        <v>961302.181458497</v>
+        <v>1123784.070252333</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.192547249110022e-07</v>
+        <v>1.615094289114406e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.24652777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>869556.8504561827</v>
+        <v>1016531.695828298</v>
       </c>
     </row>
   </sheetData>
@@ -32783,28 +32783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1541.690270170356</v>
+        <v>1736.419817137108</v>
       </c>
       <c r="AB2" t="n">
-        <v>2109.408642221573</v>
+        <v>2375.846199242783</v>
       </c>
       <c r="AC2" t="n">
-        <v>1908.089641981569</v>
+        <v>2149.098772508135</v>
       </c>
       <c r="AD2" t="n">
-        <v>1541690.270170356</v>
+        <v>1736419.817137108</v>
       </c>
       <c r="AE2" t="n">
-        <v>2109408.642221573</v>
+        <v>2375846.199242783</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744007344064053e-07</v>
+        <v>9.821612432411213e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.85069444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1908089.641981569</v>
+        <v>2149098.772508135</v>
       </c>
     </row>
     <row r="3">
@@ -32889,28 +32889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1113.916907044649</v>
+        <v>1257.442350512446</v>
       </c>
       <c r="AB3" t="n">
-        <v>1524.110254764121</v>
+        <v>1720.488098412444</v>
       </c>
       <c r="AC3" t="n">
-        <v>1378.65131115161</v>
+        <v>1556.287129020172</v>
       </c>
       <c r="AD3" t="n">
-        <v>1113916.907044649</v>
+        <v>1257442.350512446</v>
       </c>
       <c r="AE3" t="n">
-        <v>1524110.254764121</v>
+        <v>1720488.098412444</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.262568016844246e-07</v>
+        <v>1.241818195082622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1378651.31115161</v>
+        <v>1556287.129020172</v>
       </c>
     </row>
     <row r="4">
@@ -32995,28 +32995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>999.4106177811196</v>
+        <v>1132.678154476501</v>
       </c>
       <c r="AB4" t="n">
-        <v>1367.437698132806</v>
+        <v>1549.780221188203</v>
       </c>
       <c r="AC4" t="n">
-        <v>1236.931363433874</v>
+        <v>1401.871372008202</v>
       </c>
       <c r="AD4" t="n">
-        <v>999410.6177811197</v>
+        <v>1132678.154476501</v>
       </c>
       <c r="AE4" t="n">
-        <v>1367437.698132806</v>
+        <v>1549780.221188203</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.836921303643316e-07</v>
+        <v>1.340026206394647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1236931.363433874</v>
+        <v>1401871.372008202</v>
       </c>
     </row>
     <row r="5">
@@ -33101,28 +33101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>939.8478215126245</v>
+        <v>1073.030017353435</v>
       </c>
       <c r="AB5" t="n">
-        <v>1285.941252553136</v>
+        <v>1468.167008486335</v>
       </c>
       <c r="AC5" t="n">
-        <v>1163.212824239347</v>
+        <v>1328.047209781736</v>
       </c>
       <c r="AD5" t="n">
-        <v>939847.8215126245</v>
+        <v>1073030.017353435</v>
       </c>
       <c r="AE5" t="n">
-        <v>1285941.252553136</v>
+        <v>1468167.008486335</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.155294748866097e-07</v>
+        <v>1.394464517497802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.25173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1163212.824239347</v>
+        <v>1328047.209781736</v>
       </c>
     </row>
     <row r="6">
@@ -33207,28 +33207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>900.454673697076</v>
+        <v>1033.722120883906</v>
       </c>
       <c r="AB6" t="n">
-        <v>1232.041809808876</v>
+        <v>1414.384210394724</v>
       </c>
       <c r="AC6" t="n">
-        <v>1114.457468662256</v>
+        <v>1279.397366455358</v>
       </c>
       <c r="AD6" t="n">
-        <v>900454.673697076</v>
+        <v>1033722.120883906</v>
       </c>
       <c r="AE6" t="n">
-        <v>1232041.809808875</v>
+        <v>1414384.210394724</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.340103179438782e-07</v>
+        <v>1.42606469957631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.69618055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1114457.468662256</v>
+        <v>1279397.366455358</v>
       </c>
     </row>
     <row r="7">
@@ -33313,28 +33313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>875.8643693162427</v>
+        <v>998.8739992392086</v>
       </c>
       <c r="AB7" t="n">
-        <v>1198.396270507355</v>
+        <v>1366.703472969825</v>
       </c>
       <c r="AC7" t="n">
-        <v>1084.023012409861</v>
+        <v>1236.267211689956</v>
       </c>
       <c r="AD7" t="n">
-        <v>875864.3693162426</v>
+        <v>998873.9992392086</v>
       </c>
       <c r="AE7" t="n">
-        <v>1198396.270507355</v>
+        <v>1366703.472969825</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.481734287335951e-07</v>
+        <v>1.450282040655731e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.27951388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1084023.012409861</v>
+        <v>1236267.211689956</v>
       </c>
     </row>
     <row r="8">
@@ -33419,28 +33419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>845.889931099236</v>
+        <v>979.072037431495</v>
       </c>
       <c r="AB8" t="n">
-        <v>1157.383921759961</v>
+        <v>1339.609555223612</v>
       </c>
       <c r="AC8" t="n">
-        <v>1046.924824665726</v>
+        <v>1211.759099426889</v>
       </c>
       <c r="AD8" t="n">
-        <v>845889.931099236</v>
+        <v>979072.037431495</v>
       </c>
       <c r="AE8" t="n">
-        <v>1157383.921759961</v>
+        <v>1339609.555223612</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.584221119181138e-07</v>
+        <v>1.467806146763454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.99305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1046924.824665726</v>
+        <v>1211759.099426889</v>
       </c>
     </row>
     <row r="9">
@@ -33525,28 +33525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>829.0489154746341</v>
+        <v>962.2310218068932</v>
       </c>
       <c r="AB9" t="n">
-        <v>1134.341301209208</v>
+        <v>1316.566934672858</v>
       </c>
       <c r="AC9" t="n">
-        <v>1026.081359479816</v>
+        <v>1190.915634240978</v>
       </c>
       <c r="AD9" t="n">
-        <v>829048.9154746342</v>
+        <v>962231.0218068932</v>
       </c>
       <c r="AE9" t="n">
-        <v>1134341.301209208</v>
+        <v>1316566.934672858</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.652071197671237e-07</v>
+        <v>1.479407754047732e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.80208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1026081.359479816</v>
+        <v>1190915.634240978</v>
       </c>
     </row>
     <row r="10">
@@ -33631,28 +33631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>812.8212609127853</v>
+        <v>935.916142181772</v>
       </c>
       <c r="AB10" t="n">
-        <v>1112.137908324094</v>
+        <v>1280.561755439213</v>
       </c>
       <c r="AC10" t="n">
-        <v>1005.997027248999</v>
+        <v>1158.346738779805</v>
       </c>
       <c r="AD10" t="n">
-        <v>812821.2609127853</v>
+        <v>935916.142181772</v>
       </c>
       <c r="AE10" t="n">
-        <v>1112137.908324094</v>
+        <v>1280561.755439213</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.703789089667189e-07</v>
+        <v>1.488250937222462e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.66319444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1005997.027248999</v>
+        <v>1158346.738779806</v>
       </c>
     </row>
     <row r="11">
@@ -33737,28 +33737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>799.8708091231351</v>
+        <v>922.9656903921217</v>
       </c>
       <c r="AB11" t="n">
-        <v>1094.418528851884</v>
+        <v>1262.842375967003</v>
       </c>
       <c r="AC11" t="n">
-        <v>989.9687604843119</v>
+        <v>1142.318472015118</v>
       </c>
       <c r="AD11" t="n">
-        <v>799870.8091231352</v>
+        <v>922965.6903921217</v>
       </c>
       <c r="AE11" t="n">
-        <v>1094418.528851884</v>
+        <v>1262842.375967003</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.759302790250001e-07</v>
+        <v>1.497743161364145e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>989968.760484312</v>
+        <v>1142318.472015118</v>
       </c>
     </row>
     <row r="12">
@@ -33843,28 +33843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>782.2375399792651</v>
+        <v>905.1618290476595</v>
       </c>
       <c r="AB12" t="n">
-        <v>1070.291912084309</v>
+        <v>1238.482347424582</v>
       </c>
       <c r="AC12" t="n">
-        <v>968.1447541591153</v>
+        <v>1120.283330407271</v>
       </c>
       <c r="AD12" t="n">
-        <v>782237.5399792651</v>
+        <v>905161.8290476594</v>
       </c>
       <c r="AE12" t="n">
-        <v>1070291.912084309</v>
+        <v>1238482.347424582</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.792516115385013e-07</v>
+        <v>1.503422269824981e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23.42013888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>968144.7541591154</v>
+        <v>1120283.330407271</v>
       </c>
     </row>
     <row r="13">
@@ -33949,28 +33949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>773.5356297037259</v>
+        <v>896.4599187721203</v>
       </c>
       <c r="AB13" t="n">
-        <v>1058.38557454413</v>
+        <v>1226.576009884402</v>
       </c>
       <c r="AC13" t="n">
-        <v>957.3747407631208</v>
+        <v>1109.513317011276</v>
       </c>
       <c r="AD13" t="n">
-        <v>773535.6297037259</v>
+        <v>896459.9187721203</v>
       </c>
       <c r="AE13" t="n">
-        <v>1058385.57454413</v>
+        <v>1226576.009884402</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.823831536226598e-07</v>
+        <v>1.50877685780234e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23.34201388888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>957374.7407631208</v>
+        <v>1109513.317011276</v>
       </c>
     </row>
     <row r="14">
@@ -34055,28 +34055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>774.2374027531951</v>
+        <v>897.1616918215894</v>
       </c>
       <c r="AB14" t="n">
-        <v>1059.345771390455</v>
+        <v>1227.536206730728</v>
       </c>
       <c r="AC14" t="n">
-        <v>958.2432977700777</v>
+        <v>1110.381874018233</v>
       </c>
       <c r="AD14" t="n">
-        <v>774237.402753195</v>
+        <v>897161.6918215895</v>
       </c>
       <c r="AE14" t="n">
-        <v>1059345.771390455</v>
+        <v>1227536.206730728</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.82359429818992e-07</v>
+        <v>1.508736292741906e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>23.34201388888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>958243.2977700777</v>
+        <v>1110381.874018233</v>
       </c>
     </row>
   </sheetData>
@@ -34352,28 +34352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.0797094153197</v>
+        <v>528.872779483034</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.8763233815141</v>
+        <v>723.6270691090133</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.6291795360042</v>
+        <v>654.5651172502186</v>
       </c>
       <c r="AD2" t="n">
-        <v>423079.7094153197</v>
+        <v>528872.779483034</v>
       </c>
       <c r="AE2" t="n">
-        <v>578876.3233815141</v>
+        <v>723627.0691090133</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032056077192927e-06</v>
+        <v>2.212171528609246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>523629.1795360042</v>
+        <v>654565.1172502185</v>
       </c>
     </row>
   </sheetData>
@@ -34649,28 +34649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>863.1435010546846</v>
+        <v>994.3536653597755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1180.991017346791</v>
+        <v>1360.518552732928</v>
       </c>
       <c r="AC2" t="n">
-        <v>1068.278892182516</v>
+        <v>1230.672571559878</v>
       </c>
       <c r="AD2" t="n">
-        <v>863143.5010546846</v>
+        <v>994353.6653597755</v>
       </c>
       <c r="AE2" t="n">
-        <v>1180991.017346791</v>
+        <v>1360518.552732928</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.045843739333192e-07</v>
+        <v>1.482392427771051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.18576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1068278.892182516</v>
+        <v>1230672.571559878</v>
       </c>
     </row>
     <row r="3">
@@ -34755,28 +34755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.3520693120635</v>
+        <v>822.183900133524</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.2525985854382</v>
+        <v>1124.948284356399</v>
       </c>
       <c r="AC3" t="n">
-        <v>866.7983154924123</v>
+        <v>1017.584798972257</v>
       </c>
       <c r="AD3" t="n">
-        <v>700352.0693120635</v>
+        <v>822183.9001335241</v>
       </c>
       <c r="AE3" t="n">
-        <v>958252.5985854382</v>
+        <v>1124948.284356399</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.13799243162431e-07</v>
+        <v>1.683613456155899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>866798.3154924123</v>
+        <v>1017584.798972257</v>
       </c>
     </row>
     <row r="4">
@@ -34861,28 +34861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>644.3960383670584</v>
+        <v>766.1425283339472</v>
       </c>
       <c r="AB4" t="n">
-        <v>881.6910884406225</v>
+        <v>1048.270007089385</v>
       </c>
       <c r="AC4" t="n">
-        <v>797.5437284210634</v>
+        <v>948.2245888689691</v>
       </c>
       <c r="AD4" t="n">
-        <v>644396.0383670584</v>
+        <v>766142.5283339472</v>
       </c>
       <c r="AE4" t="n">
-        <v>881691.0884406224</v>
+        <v>1048270.007089386</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.518676796377458e-07</v>
+        <v>1.75375198207856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>797543.7284210634</v>
+        <v>948224.5888689691</v>
       </c>
     </row>
     <row r="5">
@@ -34967,28 +34967,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>611.9378929090071</v>
+        <v>724.3062284093677</v>
       </c>
       <c r="AB5" t="n">
-        <v>837.2804218726013</v>
+        <v>991.0277358452852</v>
       </c>
       <c r="AC5" t="n">
-        <v>757.3715535395321</v>
+        <v>896.4454396523736</v>
       </c>
       <c r="AD5" t="n">
-        <v>611937.8929090071</v>
+        <v>724306.2284093677</v>
       </c>
       <c r="AE5" t="n">
-        <v>837280.4218726014</v>
+        <v>991027.7358452852</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.716204167519108e-07</v>
+        <v>1.790145067595054e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.34201388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>757371.5535395321</v>
+        <v>896445.4396523735</v>
       </c>
     </row>
     <row r="6">
@@ -35073,28 +35073,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>608.6336599753772</v>
+        <v>721.0019954757379</v>
       </c>
       <c r="AB6" t="n">
-        <v>832.7594246003399</v>
+        <v>986.5067385730238</v>
       </c>
       <c r="AC6" t="n">
-        <v>753.282033901676</v>
+        <v>892.3559200145174</v>
       </c>
       <c r="AD6" t="n">
-        <v>608633.6599753773</v>
+        <v>721001.9954757378</v>
       </c>
       <c r="AE6" t="n">
-        <v>832759.42460034</v>
+        <v>986506.7385730238</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.730574545049253e-07</v>
+        <v>1.792792712705381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.30729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>753282.033901676</v>
+        <v>892355.9200145174</v>
       </c>
     </row>
   </sheetData>
@@ -35370,28 +35370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1066.119442159856</v>
+        <v>1221.28373695913</v>
       </c>
       <c r="AB2" t="n">
-        <v>1458.711654633419</v>
+        <v>1671.014288143351</v>
       </c>
       <c r="AC2" t="n">
-        <v>1319.494261629871</v>
+        <v>1511.535029766232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1066119.442159856</v>
+        <v>1221283.73695913</v>
       </c>
       <c r="AE2" t="n">
-        <v>1458711.654633419</v>
+        <v>1671014.288143351</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16054845024756e-07</v>
+        <v>1.27917972418534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1319494.261629871</v>
+        <v>1511535.029766232</v>
       </c>
     </row>
     <row r="3">
@@ -35476,28 +35476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.566740485633</v>
+        <v>971.3887581491231</v>
       </c>
       <c r="AB3" t="n">
-        <v>1143.259276935402</v>
+        <v>1329.096953547111</v>
       </c>
       <c r="AC3" t="n">
-        <v>1034.14821611916</v>
+        <v>1202.249805699865</v>
       </c>
       <c r="AD3" t="n">
-        <v>835566.740485633</v>
+        <v>971388.7581491231</v>
       </c>
       <c r="AE3" t="n">
-        <v>1143259.276935402</v>
+        <v>1329096.953547111</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.413298539207086e-07</v>
+        <v>1.502974385223211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.95486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1034148.21611916</v>
+        <v>1202249.805699864</v>
       </c>
     </row>
     <row r="4">
@@ -35582,28 +35582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>766.5940554847065</v>
+        <v>892.7876497618656</v>
       </c>
       <c r="AB4" t="n">
-        <v>1048.887806457026</v>
+        <v>1221.551449415497</v>
       </c>
       <c r="AC4" t="n">
-        <v>948.7834263320493</v>
+        <v>1104.968293541508</v>
       </c>
       <c r="AD4" t="n">
-        <v>766594.0554847064</v>
+        <v>892787.6497618656</v>
       </c>
       <c r="AE4" t="n">
-        <v>1048887.806457026</v>
+        <v>1221551.449415497</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.879432257046843e-07</v>
+        <v>1.586245772151559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.59201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>948783.4263320493</v>
+        <v>1104968.293541508</v>
       </c>
     </row>
     <row r="5">
@@ -35688,28 +35688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>722.475182075305</v>
+        <v>848.5834354978928</v>
       </c>
       <c r="AB5" t="n">
-        <v>988.5224174709579</v>
+        <v>1161.069293307231</v>
       </c>
       <c r="AC5" t="n">
-        <v>894.1792253474555</v>
+        <v>1050.258469524976</v>
       </c>
       <c r="AD5" t="n">
-        <v>722475.182075305</v>
+        <v>848583.4354978928</v>
       </c>
       <c r="AE5" t="n">
-        <v>988522.4174709579</v>
+        <v>1161069.293307231</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.114134231544683e-07</v>
+        <v>1.628173567080943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>894179.2253474555</v>
+        <v>1050258.469524976</v>
       </c>
     </row>
     <row r="6">
@@ -35794,28 +35794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>695.2554531872335</v>
+        <v>811.8206240780619</v>
       </c>
       <c r="AB6" t="n">
-        <v>951.2791835566114</v>
+        <v>1110.768792861843</v>
       </c>
       <c r="AC6" t="n">
-        <v>860.4904334066871</v>
+        <v>1004.758578244901</v>
       </c>
       <c r="AD6" t="n">
-        <v>695255.4531872334</v>
+        <v>811820.6240780619</v>
       </c>
       <c r="AE6" t="n">
-        <v>951279.1835566114</v>
+        <v>1110768.792861843</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.267835095872849e-07</v>
+        <v>1.65563110481069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.55902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>860490.4334066871</v>
+        <v>1004758.578244901</v>
       </c>
     </row>
     <row r="7">
@@ -35900,28 +35900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.4397573412198</v>
+        <v>790.8343360314562</v>
       </c>
       <c r="AB7" t="n">
-        <v>922.7982301764067</v>
+        <v>1082.054427706792</v>
       </c>
       <c r="AC7" t="n">
-        <v>834.7276622438202</v>
+        <v>978.7846717993824</v>
       </c>
       <c r="AD7" t="n">
-        <v>674439.7573412198</v>
+        <v>790834.3360314562</v>
       </c>
       <c r="AE7" t="n">
-        <v>922798.2301764067</v>
+        <v>1082054.427706792</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.355879780839883e-07</v>
+        <v>1.671359645245078e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.34201388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>834727.6622438201</v>
+        <v>978784.6717993824</v>
       </c>
     </row>
     <row r="8">
@@ -36006,28 +36006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>665.5076898362196</v>
+        <v>781.9022685264559</v>
       </c>
       <c r="AB8" t="n">
-        <v>910.5769813610581</v>
+        <v>1069.833178891443</v>
       </c>
       <c r="AC8" t="n">
-        <v>823.672792262778</v>
+        <v>967.7298018183403</v>
       </c>
       <c r="AD8" t="n">
-        <v>665507.6898362195</v>
+        <v>781902.268526456</v>
       </c>
       <c r="AE8" t="n">
-        <v>910576.9813610581</v>
+        <v>1069833.178891443</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.398392785866823e-07</v>
+        <v>1.67895428334054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.23784722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>823672.792262778</v>
+        <v>967729.8018183403</v>
       </c>
     </row>
   </sheetData>
